--- a/storage/excel/topic.xlsx
+++ b/storage/excel/topic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\CCNIS\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
